--- a/2024APRIL_M1_Presentation_Titles.xlsx
+++ b/2024APRIL_M1_Presentation_Titles.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCAJAVAM1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2142C136-57A6-4A13-9D9A-936881B7AFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5382C19-F1A2-4FDB-B816-8492D13F9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{76F1120D-9019-4442-9AF6-5AFD73370649}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{76F1120D-9019-4442-9AF6-5AFD73370649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Sujan</t>
   </si>
@@ -94,6 +95,15 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Practical Session left</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
   </si>
 </sst>
 </file>
@@ -445,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BF4FF-F1A2-4D20-A86C-6BE9140DF636}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +466,10 @@
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -471,8 +482,11 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,8 +499,11 @@
       <c r="D2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -499,8 +516,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -513,8 +533,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -527,8 +550,11 @@
       <c r="D5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -541,8 +567,11 @@
       <c r="D6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -555,8 +584,11 @@
       <c r="D7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -569,8 +601,11 @@
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
